--- a/insert/dataToInsert/pendentifs.xlsx
+++ b/insert/dataToInsert/pendentifs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\dataToInsert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F90CCA1-F516-4791-B224-D7C54FD81D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BE4987-FA26-4D64-9272-4BC743CBD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>typeProduit</t>
   </si>
@@ -49,29 +49,26 @@
     <t>collier</t>
   </si>
   <si>
-    <t>NomProduit</t>
-  </si>
-  <si>
     <t>idPerle</t>
   </si>
   <si>
     <t>perle</t>
   </si>
   <si>
-    <t>Regenerate response</t>
-  </si>
-  <si>
     <t>nbPerle</t>
   </si>
   <si>
     <t>PENDENTIFS</t>
+  </si>
+  <si>
+    <t>nomProduit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,12 +202,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -554,11 +545,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,39 +902,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -960,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -977,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -994,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1011,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>12</v>
@@ -1028,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1045,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1062,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1079,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1096,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1113,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1130,15 +1118,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
